--- a/2025/11/2025-11-01/01_combined_confidence.xlsx
+++ b/2025/11/2025-11-01/01_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,10 +485,10 @@
         <v>78</v>
       </c>
       <c r="D2" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F2" t="n">
         <v>1.18</v>
@@ -510,18 +510,20 @@
         <v>74</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>88</v>
+      </c>
+      <c r="E3" t="n">
+        <v>83</v>
+      </c>
       <c r="F3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Burnley FC - Arsenal FC : 14:00</t>
+          <t>Burnley FC - Arsenal FC : -:-'</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,20 +535,20 @@
         <v>71</v>
       </c>
       <c r="D4" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F4" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Haverfordwest County - The New Saints : 13:30</t>
+          <t>Haverfordwest County - The New Saints : -:-'</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -558,251 +560,261 @@
         <v>71</v>
       </c>
       <c r="D5" t="n">
-        <v>77</v>
-      </c>
-      <c r="E5" t="n">
         <v>78</v>
       </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Falkenbergs FF - Västerås SK : 11:00</t>
+          <t>Lee Man ✓ - Hong Kong Football Club: 7:1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Västerås SK</t>
+          <t>Lee Man</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>71</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>72</v>
+      </c>
+      <c r="E6" t="n">
+        <v>68</v>
+      </c>
       <c r="F6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>2.05</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lee Man  - Hong Kong Football Club: 09:00</t>
+          <t>Atlético de Madrid  - Sevilla FC: 14:15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lee Man</t>
+          <t>Atlético de Madrid</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E7" t="n">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="F7" t="n">
-        <v>2.08</v>
+        <v>1.18</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Atlético de Madrid  - Sevilla FC: 14:15</t>
+          <t>Liverpool FC Montevideo  - CA Juventud: 18:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Atlético de Madrid</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>54</v>
       </c>
       <c r="D8" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="E8" t="n">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="F8" t="n">
-        <v>1.18</v>
+        <v>1.65</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo  - CA Juventud: 18:30</t>
+          <t>Atlético Pantoja  - Atlántico FC: 21:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>Atlético Pantoja</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>48</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>86</v>
+      </c>
+      <c r="E9" t="n">
+        <v>82</v>
+      </c>
       <c r="F9" t="n">
-        <v>1.67</v>
+        <v>1.35</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tai Po  - Hong Kong Rangers: 06:00</t>
+          <t>Colwyn Bay  - Barry Town United: 16:15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tai Po</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D10" t="n">
-        <v>73</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
+        <v>88</v>
+      </c>
+      <c r="E10" t="n">
+        <v>83</v>
+      </c>
       <c r="F10" t="n">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Auckland FC  - Adelaide United: 03:00</t>
+          <t>SSC Napoli  - Como 1907: 16:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Auckland FC</t>
+          <t>SSC Napoli</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" t="n">
-        <v>73</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="E11" t="n">
+        <v>76</v>
+      </c>
       <c r="F11" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SSC Napoli  - Como 1907: 16:00</t>
+          <t>CD Real Cartagena  - Club Boca Juniors de Cali: 20:05</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SSC Napoli</t>
+          <t>CD Real Cartagena</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" t="n">
-        <v>91</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="E12" t="n">
+        <v>92</v>
+      </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1.18</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Colwyn Bay  - Barry Town United: 16:15</t>
+          <t>RB Leipzig  - VfB Stuttgart: -:-'</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>42</v>
-      </c>
-      <c r="D13" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>77</v>
+      </c>
       <c r="F13" t="n">
-        <v>1.22</v>
+        <v>2.1</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CD Real Cartagena  - Club Boca Juniors de Cali: 20:05</t>
+          <t>Kryvbas Kryvyi Rig  - SC Poltava: 1:2'</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CD Real Cartagena</t>
+          <t>Kryvbas Kryvyi Rig</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E14" t="n">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F14" t="n">
-        <v>1.18</v>
+        <v>2</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kryvbas Kryvyi Rig  - SC Poltava: 10:00</t>
+          <t>Ajax Amsterdam  - SC Heerenveen: 14:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kryvbas Kryvyi Rig</t>
+          <t>Ajax Amsterdam</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>32</v>
-      </c>
-      <c r="D15" t="n">
-        <v>77</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F15" t="n">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -821,38 +833,15 @@
         <v>28</v>
       </c>
       <c r="D16" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F16" t="n">
         <v>1.18</v>
       </c>
       <c r="G16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Leicester City  - Blackburn Rovers: 11:30</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Leicester City</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>28</v>
-      </c>
-      <c r="D17" t="n">
-        <v>71</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2025/11/2025-11-01/01_combined_confidence.xlsx
+++ b/2025/11/2025-11-01/01_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,10 +485,10 @@
         <v>78</v>
       </c>
       <c r="D2" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F2" t="n">
         <v>1.18</v>
@@ -498,7 +498,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bayern Munich  - Bayer 04 Leverkusen: 16:30</t>
+          <t>Bayern Munich  - Bayer 04 Leverkusen: -:-'</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -510,10 +510,10 @@
         <v>74</v>
       </c>
       <c r="D3" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E3" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F3" t="n">
         <v>1.23</v>
@@ -523,325 +523,615 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Burnley FC - Arsenal FC : -:-'</t>
+          <t>Club Brugge KV  - FCV Dender EH: -:-'</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Club Brugge KV</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E4" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Haverfordwest County - The New Saints : -:-'</t>
+          <t>Galatasaray  - Trabzonspor: -:-'</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lee Man ✓ - Hong Kong Football Club: 7:1</t>
+          <t>Haverfordwest County - The New Saints : 0:3'</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lee Man</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D6" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E6" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+        <v>1.61</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Atlético de Madrid  - Sevilla FC: 14:15</t>
+          <t>Olympiacos Piraeus  - Aris Thessaloniki: 17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Atlético de Madrid</t>
+          <t>Olympiacos Piraeus</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D7" t="n">
-        <v>87</v>
-      </c>
-      <c r="E7" t="n">
-        <v>92</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo  - CA Juventud: 18:30</t>
+          <t>Feyenoord Rotterdam  - FC Volendam: 18:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>Feyenoord Rotterdam</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
-      </c>
-      <c r="E8" t="n">
-        <v>69</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>1.65</v>
+        <v>1.12</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Atlético Pantoja  - Atlántico FC: 21:00</t>
+          <t>Club Africain  - AS Soliman: 1:1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Atlético Pantoja</t>
+          <t>Club Africain</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D9" t="n">
         <v>86</v>
       </c>
       <c r="E9" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Colwyn Bay  - Barry Town United: 16:15</t>
+          <t>UD Almería  - SD Eibar: 19:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>UD Almería</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>42</v>
-      </c>
-      <c r="D10" t="n">
-        <v>88</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F10" t="n">
-        <v>1.23</v>
+        <v>1.73</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SSC Napoli  - Como 1907: 16:00</t>
+          <t>Lee Man ✓ - Hong Kong Football Club: 7:1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SSC Napoli</t>
+          <t>Lee Man</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D11" t="n">
-        <v>87</v>
-      </c>
-      <c r="E11" t="n">
-        <v>76</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>1.53</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CD Real Cartagena  - Club Boca Juniors de Cali: 20:05</t>
+          <t>Al-Jazira Club  - Al-Bataeh CSC: -:-'</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CD Real Cartagena</t>
+          <t>Al-Jazira Club</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D12" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RB Leipzig  - VfB Stuttgart: -:-'</t>
+          <t>Vitória Guimarães SC - SL Benfica : 19:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>SL Benfica</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>38</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>77</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D13" t="n">
+        <v>82</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kryvbas Kryvyi Rig  - SC Poltava: 1:2'</t>
+          <t>Atlético de Madrid  - Sevilla FC: 0:0'</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kryvbas Kryvyi Rig</t>
+          <t>Atlético de Madrid</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D14" t="n">
         <v>79</v>
       </c>
       <c r="E14" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1.18</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ajax Amsterdam  - SC Heerenveen: 14:30</t>
+          <t>Liverpool FC Montevideo  - CA Juventud: 18:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ajax Amsterdam</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>29</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>54</v>
+      </c>
+      <c r="D15" t="n">
+        <v>51</v>
+      </c>
       <c r="E15" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F15" t="n">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Real Oruro  - Gualberto Villarroel San José: 18:00</t>
+          <t>Tainan City TSG - Phnom Penh Crown ✓: 2:3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Real Oruro</t>
+          <t>Phnom Penh Crown</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D16" t="n">
-        <v>87</v>
-      </c>
-      <c r="E16" t="n">
-        <v>92</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
         <v>1.18</v>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Club Alianza Lima  - FBC Melgar: 2:2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Club Alianza Lima</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>47</v>
+      </c>
+      <c r="D17" t="n">
+        <v>86</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Colwyn Bay  - Barry Town United: -:-'</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>42</v>
+      </c>
+      <c r="D18" t="n">
+        <v>81</v>
+      </c>
+      <c r="E18" t="n">
+        <v>85</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SSC Napoli  - Como 1907: -:-'</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SSC Napoli</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>42</v>
+      </c>
+      <c r="D19" t="n">
+        <v>79</v>
+      </c>
+      <c r="E19" t="n">
+        <v>76</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CD Real Cartagena  - Club Boca Juniors de Cali: 20:05</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CD Real Cartagena</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>41</v>
+      </c>
+      <c r="D20" t="n">
+        <v>79</v>
+      </c>
+      <c r="E20" t="n">
+        <v>93</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Al-Khaleej FC - Al-Ittihad Club : 4:0'</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Al-Ittihad Club</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>39</v>
+      </c>
+      <c r="D21" t="n">
+        <v>86</v>
+      </c>
+      <c r="E21" t="n">
+        <v>100</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FC Copenhagen  - FC Fredericia: -:-'</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FC Copenhagen</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" t="n">
+        <v>70</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cruzeiro Esporte Clube  - Esporte Clube Vitória: 18:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Cruzeiro Esporte Clube</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>37</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>96</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Nashville SC - Inter Miami CF : 22:30</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Inter Miami CF</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>100</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Olympiacos Piraeus B  - GS Ilioupolis: 12:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Olympiacos Piraeus B</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>34</v>
+      </c>
+      <c r="D25" t="n">
+        <v>78</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Puebla FC - CD Cruz Azul ✓: 0:3</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CD Cruz Azul</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>33</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>96</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CA Cerro - Club Nacional : 21:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Club Nacional</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>29</v>
+      </c>
+      <c r="D27" t="n">
+        <v>86</v>
+      </c>
+      <c r="E27" t="n">
+        <v>100</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Real Oruro  - Gualberto Villarroel San José: 18:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Real Oruro</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>28</v>
+      </c>
+      <c r="D28" t="n">
+        <v>79</v>
+      </c>
+      <c r="E28" t="n">
+        <v>93</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2025/11/2025-11-01/01_combined_confidence.xlsx
+++ b/2025/11/2025-11-01/01_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,433 +642,437 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Club Africain  - AS Soliman: 1:1</t>
+          <t>Louisville City FC  - Detroit City FC: 22:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Club Africain</t>
+          <t>Louisville City FC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" t="n">
-        <v>86</v>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UD Almería  - SD Eibar: 19:00</t>
+          <t>Club Africain  - AS Soliman: 1:1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UD Almería</t>
+          <t>Club Africain</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>63</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>86</v>
+      </c>
       <c r="E10" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>1.28</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lee Man ✓ - Hong Kong Football Club: 7:1</t>
+          <t>UD Almería  - SD Eibar: 19:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lee Man</t>
+          <t>UD Almería</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>60</v>
-      </c>
-      <c r="D11" t="n">
-        <v>75</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>63</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>71</v>
+      </c>
       <c r="F11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+        <v>1.73</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Al-Jazira Club  - Al-Bataeh CSC: -:-'</t>
+          <t>Kuala Lumpur City FC ✓ - Kelantan The Real Warriors: 2:1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Al-Jazira Club</t>
+          <t>Kuala Lumpur City FC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D12" t="n">
-        <v>86</v>
-      </c>
-      <c r="E12" t="n">
-        <v>100</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>1.53</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Vitória Guimarães SC - SL Benfica : 19:30</t>
+          <t>Thimphu City FC  - BFF Academy FC: -:-'</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SL Benfica</t>
+          <t>Thimphu City FC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D13" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Atlético de Madrid  - Sevilla FC: 0:0'</t>
+          <t>Lee Man ✓ - Hong Kong Football Club: 7:1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Atlético de Madrid</t>
+          <t>Lee Man</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D14" t="n">
-        <v>79</v>
-      </c>
-      <c r="E14" t="n">
-        <v>93</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+        <v>1.53</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo  - CA Juventud: 18:30</t>
+          <t>Al-Jazira Club  - Al-Bataeh CSC: -:-'</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>Al-Jazira Club</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D15" t="n">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="E15" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>1.69</v>
+        <v>1.28</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tainan City TSG - Phnom Penh Crown ✓: 2:3</t>
+          <t>Vitória Guimarães SC - SL Benfica : 19:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Phnom Penh Crown</t>
+          <t>SL Benfica</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Club Alianza Lima  - FBC Melgar: 2:2</t>
+          <t>Atlético de Madrid  - Sevilla FC: 0:0'</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Club Alianza Lima</t>
+          <t>Atlético de Madrid</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D17" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E17" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F17" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Colwyn Bay  - Barry Town United: -:-'</t>
+          <t>Liverpool FC Montevideo  - CA Juventud: 18:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E18" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F18" t="n">
-        <v>1.23</v>
+        <v>1.69</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SSC Napoli  - Como 1907: -:-'</t>
+          <t>Tainan City TSG - Phnom Penh Crown ✓: 2:3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SSC Napoli</t>
+          <t>Phnom Penh Crown</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D19" t="n">
-        <v>79</v>
-      </c>
-      <c r="E19" t="n">
-        <v>76</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+        <v>1.18</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CD Real Cartagena  - Club Boca Juniors de Cali: 20:05</t>
+          <t>Club Alianza Lima  - FBC Melgar: 2:2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CD Real Cartagena</t>
+          <t>Club Alianza Lima</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D20" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E20" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Al-Khaleej FC - Al-Ittihad Club : 4:0'</t>
+          <t>Colwyn Bay  - Barry Town United: -:-'</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Al-Ittihad Club</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D21" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F21" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FC Copenhagen  - FC Fredericia: -:-'</t>
+          <t>SSC Napoli  - Como 1907: -:-'</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>SSC Napoli</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D22" t="n">
-        <v>70</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
+        <v>79</v>
+      </c>
+      <c r="E22" t="n">
+        <v>76</v>
+      </c>
       <c r="F22" t="n">
-        <v>1.18</v>
+        <v>1.95</v>
       </c>
       <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Cruzeiro Esporte Clube  - Esporte Clube Vitória: 18:00</t>
+          <t>CD Real Cartagena  - Club Boca Juniors de Cali: 20:05</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cruzeiro Esporte Clube</t>
+          <t>CD Real Cartagena</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>37</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="D23" t="n">
+        <v>79</v>
+      </c>
       <c r="E23" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F23" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nashville SC - Inter Miami CF : 22:30</t>
+          <t>Al-Khaleej FC - Al-Ittihad Club : 4:0'</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Inter Miami CF</t>
+          <t>Al-Ittihad Club</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D24" t="n">
+        <v>86</v>
+      </c>
+      <c r="E24" t="n">
         <v>100</v>
       </c>
-      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Olympiacos Piraeus B  - GS Ilioupolis: 12:00</t>
+          <t>FC Copenhagen  - FC Fredericia: -:-'</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Olympiacos Piraeus B</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D25" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Puebla FC - CD Cruz Azul ✓: 0:3</t>
+          <t>Cruzeiro Esporte Clube  - Esporte Clube Vitória: 18:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CD Cruz Azul</t>
+          <t>Cruzeiro Esporte Clube</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
@@ -1077,61 +1081,207 @@
       <c r="F26" t="n">
         <v>1.44</v>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CA Cerro - Club Nacional : 21:00</t>
+          <t>Nashville SC - Inter Miami CF : 22:30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Club Nacional</t>
+          <t>Inter Miami CF</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D27" t="n">
-        <v>86</v>
-      </c>
-      <c r="E27" t="n">
         <v>100</v>
       </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>Olympiacos Piraeus B  - GS Ilioupolis: 12:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Olympiacos Piraeus B</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>34</v>
+      </c>
+      <c r="D28" t="n">
+        <v>78</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Puebla FC - CD Cruz Azul ✓: 0:3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CD Cruz Azul</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>33</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>96</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CA Cerro - Club Nacional : 21:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Club Nacional</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="n">
+        <v>86</v>
+      </c>
+      <c r="E30" t="n">
+        <v>100</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Real Oruro  - Gualberto Villarroel San José: 18:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Real Oruro</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="C31" t="n">
         <v>28</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D31" t="n">
         <v>79</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E31" t="n">
         <v>93</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F31" t="n">
         <v>1.18</v>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Leicester City X - Blackburn Rovers: 0:2</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>28</v>
+      </c>
+      <c r="D32" t="n">
+        <v>75</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cork City FC - Derry City : -:-'</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Derry City</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>26</v>
+      </c>
+      <c r="D33" t="n">
+        <v>75</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PDRM FC - Kuching City ✓: 0:5</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kuching City</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>25</v>
+      </c>
+      <c r="D34" t="n">
+        <v>75</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
